--- a/Milestone04/Stakeholder management/isuue log.xlsx
+++ b/Milestone04/Stakeholder management/isuue log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538313\Desktop\Project Stakeholder Management\Project Stakeholder Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538313\Desktop\GroupCMilestone04\Project Stakeholder Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Issue</t>
   </si>
@@ -153,6 +153,24 @@
   </si>
   <si>
     <t>Recruiting.</t>
+  </si>
+  <si>
+    <t>Documentation format changes</t>
+  </si>
+  <si>
+    <t>Documentation structure is unsatisfactory</t>
+  </si>
+  <si>
+    <t>May 22nd 2020</t>
+  </si>
+  <si>
+    <t>Bharath kumar Gandhasiri</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>The documentation changes are under progress</t>
   </si>
 </sst>
 </file>
@@ -210,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -266,12 +284,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -301,26 +339,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -603,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="79" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -626,34 +676,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
@@ -670,50 +720,50 @@
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -747,213 +797,245 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="21">
+        <v>43976</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="16">
         <v>43979</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J9" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="16">
         <v>43978</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J11" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="7">
         <v>43984</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>4</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="14" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="16">
         <v>43985</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J14" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+    <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
